--- a/resources/salary.xlsx
+++ b/resources/salary.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\souvi\pm\pm\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="5655"/>
   </bookViews>
@@ -12,12 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <r>
       <rPr>
@@ -272,6 +276,30 @@
   </si>
   <si>
     <t>合同归属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子女教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房贷款利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房租金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赡养老人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专项附加扣除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +609,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,16 +635,109 @@
     <xf numFmtId="176" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,94 +755,22 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1029,238 +1078,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW3"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AU3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
-    <col min="2" max="42" width="9" style="4"/>
-    <col min="43" max="43" width="26.125" style="4" customWidth="1"/>
-    <col min="44" max="44" width="21.25" style="4" customWidth="1"/>
-    <col min="45" max="45" width="35.375" style="4" customWidth="1"/>
-    <col min="46" max="46" width="30.375" style="4" customWidth="1"/>
-    <col min="47" max="47" width="17.625" style="4" customWidth="1"/>
-    <col min="48" max="48" width="30.375" style="4" customWidth="1"/>
-    <col min="49" max="49" width="60.75" style="4" customWidth="1"/>
-    <col min="50" max="16384" width="9" style="4"/>
+    <col min="2" max="38" width="9" style="4"/>
+    <col min="39" max="39" width="10.375" style="4" customWidth="1"/>
+    <col min="40" max="47" width="9" style="4"/>
+    <col min="48" max="48" width="26.125" style="4" customWidth="1"/>
+    <col min="49" max="49" width="21.25" style="4" customWidth="1"/>
+    <col min="50" max="50" width="35.375" style="4" customWidth="1"/>
+    <col min="51" max="51" width="30.375" style="4" customWidth="1"/>
+    <col min="52" max="52" width="17.625" style="4" customWidth="1"/>
+    <col min="53" max="53" width="30.375" style="4" customWidth="1"/>
+    <col min="54" max="54" width="60.75" style="4" customWidth="1"/>
+    <col min="55" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="9" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="44" t="s">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="11" t="s">
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AR1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AS1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AT1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="37" t="s">
+      <c r="AU1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AV1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AW1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AS1" s="21" t="s">
+      <c r="AX1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AY1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="45" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="45" t="s">
+      <c r="BA1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="21" t="s">
+      <c r="BB1" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="39" t="s">
+    <row r="2" spans="1:54" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="39" t="s">
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41" t="s">
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="21"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="13"/>
     </row>
-    <row r="3" spans="1:49" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="24"/>
+    <row r="3" spans="1:54" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
       <c r="T3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1270,10 +1333,10 @@
       <c r="V3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="26"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="35"/>
       <c r="AA3" s="8" t="s">
         <v>38</v>
       </c>
@@ -1292,52 +1355,53 @@
       <c r="AF3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
       <c r="AI3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="AJ3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="22"/>
+      <c r="AK3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="AR1:AR3"/>
+  <mergeCells count="44">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="AS1:AS3"/>
-    <mergeCell ref="AT1:AT3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="AQ1:AQ3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="AI1:AJ2"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="Z1:Z3"/>
@@ -1352,17 +1416,32 @@
     <mergeCell ref="W1:W3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AK1:AO2"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="AT1:AT3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AA1:AH1"/>
+    <mergeCell ref="AI1:AJ2"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AQ1:AQ3"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/salary.xlsx
+++ b/resources/salary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -301,6 +301,10 @@
   <si>
     <t>专项附加扣除</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -638,108 +642,6 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,6 +657,54 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -771,6 +721,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,233 +1101,238 @@
     <col min="52" max="52" width="17.625" style="4" customWidth="1"/>
     <col min="53" max="53" width="30.375" style="4" customWidth="1"/>
     <col min="54" max="54" width="60.75" style="4" customWidth="1"/>
-    <col min="55" max="16384" width="9" style="4"/>
+    <col min="55" max="55" width="12.5" style="4" customWidth="1"/>
+    <col min="56" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:55" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="36" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Y1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="Z1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="28" t="s">
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="49" t="s">
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="33"/>
       <c r="AP1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" s="31" t="s">
+      <c r="AQ1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AR1" s="32" t="s">
+      <c r="AR1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AS1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AT1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AU1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AV1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AW1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AX1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AY1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="AZ1" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BA1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BB1" s="17" t="s">
         <v>46</v>
       </c>
+      <c r="BC1" s="17" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
+    <row r="2" spans="1:55" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
       <c r="Y2" s="29"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="23" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="23" t="s">
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="23" t="s">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="25" t="s">
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="54"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="36"/>
       <c r="AP2" s="29"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="13"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="16"/>
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1333,10 +1342,10 @@
       <c r="V3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
       <c r="Y3" s="30"/>
-      <c r="Z3" s="35"/>
+      <c r="Z3" s="22"/>
       <c r="AA3" s="8" t="s">
         <v>38</v>
       </c>
@@ -1355,8 +1364,8 @@
       <c r="AF3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
       <c r="AI3" s="8" t="s">
         <v>44</v>
       </c>
@@ -1379,28 +1388,44 @@
         <v>59</v>
       </c>
       <c r="AP3" s="30"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="14"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+  <mergeCells count="45">
+    <mergeCell ref="BC1:BC3"/>
+    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="AT1:AT3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AA1:AH1"/>
+    <mergeCell ref="AI1:AJ2"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AQ1:AQ3"/>
+    <mergeCell ref="AR1:AR3"/>
     <mergeCell ref="AS1:AS3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
@@ -1417,27 +1442,13 @@
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="AK1:AO2"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="AT1:AT3"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="AI1:AJ2"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="AQ1:AQ3"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="AZ1:AZ3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/salary.xlsx
+++ b/resources/salary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -151,18 +151,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>准许扣除的费用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应纳税所得额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所得税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>奖金（后）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -283,27 +271,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>住房贷款利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房租金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赡养老人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专项附加扣除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月五险一金代扣款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月应纳税所得额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计税前收入额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个税累计减除费用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计专项附加扣除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计五险一金代扣款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计应纳税所得额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计应扣缴税额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计已预缴税额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计应补（退）税额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子女教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房贷款利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房租金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赡养老人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>继续教育</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>住房贷款利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房租金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赡养老人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专项附加扣除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职时间</t>
+    <t>当月应扣所得税</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +461,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -613,7 +671,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +700,129 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,124 +838,34 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1082,351 +1173,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1:AZ3"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:BD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
-    <col min="2" max="38" width="9" style="4"/>
+    <col min="2" max="37" width="9" style="4"/>
+    <col min="38" max="38" width="11" style="4" customWidth="1"/>
     <col min="39" max="39" width="10.375" style="4" customWidth="1"/>
-    <col min="40" max="47" width="9" style="4"/>
-    <col min="48" max="48" width="26.125" style="4" customWidth="1"/>
-    <col min="49" max="49" width="21.25" style="4" customWidth="1"/>
-    <col min="50" max="50" width="35.375" style="4" customWidth="1"/>
-    <col min="51" max="51" width="30.375" style="4" customWidth="1"/>
-    <col min="52" max="52" width="17.625" style="4" customWidth="1"/>
-    <col min="53" max="53" width="30.375" style="4" customWidth="1"/>
-    <col min="54" max="54" width="60.75" style="4" customWidth="1"/>
-    <col min="55" max="55" width="12.5" style="4" customWidth="1"/>
-    <col min="56" max="16384" width="9" style="4"/>
+    <col min="40" max="43" width="9" style="4"/>
+    <col min="44" max="44" width="7.625" style="4" customWidth="1"/>
+    <col min="45" max="45" width="7.5" style="4" customWidth="1"/>
+    <col min="46" max="46" width="9" style="4"/>
+    <col min="47" max="47" width="11.25" style="4" customWidth="1"/>
+    <col min="48" max="50" width="9" style="4"/>
+    <col min="51" max="51" width="10.875" style="4" customWidth="1"/>
+    <col min="52" max="52" width="9" style="4"/>
+    <col min="53" max="53" width="9" style="4" customWidth="1"/>
+    <col min="54" max="55" width="9" style="4"/>
+    <col min="56" max="56" width="12.875" style="4" customWidth="1"/>
+    <col min="57" max="59" width="9" style="4"/>
+    <col min="60" max="60" width="26.125" style="4" customWidth="1"/>
+    <col min="61" max="61" width="21.25" style="4" customWidth="1"/>
+    <col min="62" max="62" width="35.375" style="4" customWidth="1"/>
+    <col min="63" max="63" width="30.375" style="4" customWidth="1"/>
+    <col min="64" max="64" width="17.625" style="4" customWidth="1"/>
+    <col min="65" max="65" width="30.375" style="4" customWidth="1"/>
+    <col min="66" max="66" width="60.75" style="4" customWidth="1"/>
+    <col min="67" max="67" width="12.5" style="4" customWidth="1"/>
+    <col min="68" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="40"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ1" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR1" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT1" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ1" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA1" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB1" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC1" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="BK1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA1" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ1" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR1" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS1" s="17" t="s">
+      <c r="BL1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO1" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="51"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="41" t="s">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AV1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA1" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC1" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="43" t="s">
+    <row r="3" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" s="45" t="s">
+      <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-    </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
       <c r="T3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AC3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="8" t="s">
+      <c r="AD3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AE3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AF3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="AK3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV3" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW3" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX3" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="53">
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="BB1:BB3"/>
     <mergeCell ref="BC1:BC3"/>
-    <mergeCell ref="AZ1:AZ3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="AT1:AT3"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="AI1:AJ2"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="AQ1:AQ3"/>
     <mergeCell ref="AR1:AR3"/>
     <mergeCell ref="AS1:AS3"/>
+    <mergeCell ref="AT1:AX2"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="AK1:AO2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="Z1:Z3"/>
@@ -1441,14 +1599,29 @@
     <mergeCell ref="W1:W3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="AK1:AO2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="BH1:BH3"/>
+    <mergeCell ref="BF1:BF3"/>
+    <mergeCell ref="BG1:BG3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AA1:AH1"/>
+    <mergeCell ref="AI1:AJ2"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AQ1:AQ3"/>
+    <mergeCell ref="BD1:BD3"/>
+    <mergeCell ref="BE1:BE3"/>
+    <mergeCell ref="BO1:BO3"/>
+    <mergeCell ref="BL1:BL3"/>
+    <mergeCell ref="BM1:BM3"/>
+    <mergeCell ref="BI1:BI3"/>
+    <mergeCell ref="BJ1:BJ3"/>
+    <mergeCell ref="BK1:BK3"/>
+    <mergeCell ref="BN1:BN3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/salary.xlsx
+++ b/resources/salary.xlsx
@@ -303,60 +303,60 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>当月应扣所得税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>累计税前收入额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>个税累计减除费用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>累计专项附加扣除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>子女教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房贷款利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房租金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赡养老人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>累计五险一金代扣款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>累计应纳税所得额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>累计应扣缴税额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>累计已预缴税额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>累计应补（退）税额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子女教育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房贷款利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房租金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赡养老人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续教育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月应扣所得税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +671,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,108 +703,6 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -838,34 +736,139 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1175,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1:BD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1:BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1185,16 +1188,13 @@
     <col min="2" max="37" width="9" style="4"/>
     <col min="38" max="38" width="11" style="4" customWidth="1"/>
     <col min="39" max="39" width="10.375" style="4" customWidth="1"/>
-    <col min="40" max="43" width="9" style="4"/>
-    <col min="44" max="44" width="7.625" style="4" customWidth="1"/>
-    <col min="45" max="45" width="7.5" style="4" customWidth="1"/>
+    <col min="40" max="44" width="9" style="4"/>
+    <col min="45" max="45" width="8" style="4" customWidth="1"/>
     <col min="46" max="46" width="9" style="4"/>
-    <col min="47" max="47" width="11.25" style="4" customWidth="1"/>
+    <col min="47" max="47" width="11.125" style="4" customWidth="1"/>
     <col min="48" max="50" width="9" style="4"/>
-    <col min="51" max="51" width="10.875" style="4" customWidth="1"/>
-    <col min="52" max="52" width="9" style="4"/>
-    <col min="53" max="53" width="9" style="4" customWidth="1"/>
-    <col min="54" max="55" width="9" style="4"/>
+    <col min="51" max="51" width="10.5" style="4" customWidth="1"/>
+    <col min="52" max="55" width="9" style="4"/>
     <col min="56" max="56" width="12.875" style="4" customWidth="1"/>
     <col min="57" max="59" width="9" style="4"/>
     <col min="60" max="60" width="26.125" style="4" customWidth="1"/>
@@ -1209,273 +1209,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="29" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="45" t="s">
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="30" t="s">
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" s="56" t="s">
+      <c r="AQ1" s="50" t="s">
         <v>60</v>
       </c>
       <c r="AR1" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT1" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA1" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB1" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC1" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT1" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ1" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA1" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB1" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC1" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BF1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BG1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BJ1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="BK1" s="11" t="s">
+      <c r="BK1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BL1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BM1" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="BN1" s="11" t="s">
+      <c r="BN1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="BO1" s="11" t="s">
+      <c r="BO1" s="40" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="24" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="26" t="s">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="26" t="s">
+      <c r="AH2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="22"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="40"/>
+      <c r="BO2" s="40"/>
     </row>
     <row r="3" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
       <c r="T3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1485,10 +1485,10 @@
       <c r="V3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="36"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="27"/>
       <c r="AA3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1507,8 +1507,8 @@
       <c r="AF3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
       <c r="AI3" s="8" t="s">
         <v>41</v>
       </c>
@@ -1530,53 +1530,74 @@
       <c r="AO3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="65" t="s">
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU3" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV3" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW3" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX3" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AU3" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV3" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW3" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX3" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="64"/>
-      <c r="BC3" s="64"/>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="12"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="12"/>
-      <c r="BO3" s="12"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="41"/>
+      <c r="BJ3" s="41"/>
+      <c r="BK3" s="41"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="41"/>
+      <c r="BO3" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="BC1:BC3"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="AS1:AS3"/>
-    <mergeCell ref="AT1:AX2"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="BE1:BE3"/>
+    <mergeCell ref="BO1:BO3"/>
+    <mergeCell ref="BL1:BL3"/>
+    <mergeCell ref="BM1:BM3"/>
+    <mergeCell ref="BI1:BI3"/>
+    <mergeCell ref="BJ1:BJ3"/>
+    <mergeCell ref="BK1:BK3"/>
+    <mergeCell ref="BN1:BN3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="BH1:BH3"/>
+    <mergeCell ref="BF1:BF3"/>
+    <mergeCell ref="BG1:BG3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AA1:AH1"/>
+    <mergeCell ref="AI1:AJ2"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AQ1:AQ3"/>
+    <mergeCell ref="BD1:BD3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:V2"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
     <mergeCell ref="AK1:AO2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -1593,35 +1614,14 @@
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="P1:P3"/>
     <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:V2"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="BH1:BH3"/>
-    <mergeCell ref="BF1:BF3"/>
-    <mergeCell ref="BG1:BG3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="AI1:AJ2"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="AQ1:AQ3"/>
-    <mergeCell ref="BD1:BD3"/>
-    <mergeCell ref="BE1:BE3"/>
-    <mergeCell ref="BO1:BO3"/>
-    <mergeCell ref="BL1:BL3"/>
-    <mergeCell ref="BM1:BM3"/>
-    <mergeCell ref="BI1:BI3"/>
-    <mergeCell ref="BJ1:BJ3"/>
-    <mergeCell ref="BK1:BK3"/>
-    <mergeCell ref="BN1:BN3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="BC1:BC3"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="AS1:AS3"/>
+    <mergeCell ref="AT1:AX2"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="AZ1:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/salary.xlsx
+++ b/resources/salary.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -275,88 +275,88 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>专项附加扣除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月五险一金代扣款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月应纳税所得额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计税前收入额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个税累计减除费用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计专项附加扣除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子女教育</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房贷款利息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>住房租金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>住房租金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>赡养老人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>专项附加扣除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绩效教育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月五险一金代扣款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月应纳税所得额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月应扣所得税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计税前收入额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个税累计减除费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计专项附加扣除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子女教育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房贷款利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房租金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>赡养老人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>继续教育</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>继续教育</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>累计五险一金代扣款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>累计应纳税所得额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>累计应扣缴税额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>累计已预缴税额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>累计应补（退）税额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月应扣所得税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,28 +498,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,133 +522,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -671,205 +529,100 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,6 +631,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1178,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:BA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1188,12 +946,10 @@
     <col min="2" max="37" width="9" style="4"/>
     <col min="38" max="38" width="11" style="4" customWidth="1"/>
     <col min="39" max="39" width="10.375" style="4" customWidth="1"/>
-    <col min="40" max="44" width="9" style="4"/>
-    <col min="45" max="45" width="8" style="4" customWidth="1"/>
-    <col min="46" max="46" width="9" style="4"/>
-    <col min="47" max="47" width="11.125" style="4" customWidth="1"/>
+    <col min="40" max="46" width="9" style="4"/>
+    <col min="47" max="47" width="10.625" style="4" customWidth="1"/>
     <col min="48" max="50" width="9" style="4"/>
-    <col min="51" max="51" width="10.5" style="4" customWidth="1"/>
+    <col min="51" max="51" width="11" style="4" customWidth="1"/>
     <col min="52" max="55" width="9" style="4"/>
     <col min="56" max="56" width="12.875" style="4" customWidth="1"/>
     <col min="57" max="59" width="9" style="4"/>
@@ -1209,273 +965,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="22" t="s">
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AA1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="49" t="s">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="11" t="s">
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="34" t="s">
+      <c r="AQ1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" s="50" t="s">
+      <c r="AT1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS1" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT1" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="57" t="s">
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AZ1" s="57" t="s">
+      <c r="BA1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BA1" s="57" t="s">
+      <c r="BB1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BB1" s="57" t="s">
+      <c r="BC1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BC1" s="57" t="s">
+      <c r="BD1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BD1" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE1" s="40" t="s">
+      <c r="BE1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="BF1" s="40" t="s">
+      <c r="BF1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="42" t="s">
+      <c r="BG1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="BH1" s="40" t="s">
+      <c r="BH1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" s="40" t="s">
+      <c r="BI1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="BJ1" s="40" t="s">
+      <c r="BJ1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="BK1" s="40" t="s">
+      <c r="BK1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="BL1" s="54" t="s">
+      <c r="BL1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="BM1" s="54" t="s">
+      <c r="BM1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="BN1" s="40" t="s">
+      <c r="BN1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BO1" s="40" t="s">
-        <v>57</v>
+      <c r="BO1" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="44" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="44" t="s">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="44" t="s">
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="46" t="s">
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AH2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="23"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="23"/>
+      <c r="BO2" s="23"/>
     </row>
     <row r="3" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1485,87 +1241,87 @@
       <c r="V3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="8" t="s">
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="31" t="s">
         <v>35</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="31" t="s">
         <v>37</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="31" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="8" t="s">
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AL3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AM3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="66" t="s">
+      <c r="AM3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AU3" s="66" t="s">
+      <c r="AO3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU3" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV3" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW3" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AV3" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW3" s="66" t="s">
+      <c r="AX3" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AX3" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="53"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="41"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="23"/>
+      <c r="BN3" s="24"/>
+      <c r="BO3" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -1614,16 +1370,16 @@
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="P1:P3"/>
     <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="BC1:BC3"/>
     <mergeCell ref="AR1:AR3"/>
     <mergeCell ref="AS1:AS3"/>
     <mergeCell ref="AT1:AX2"/>
+    <mergeCell ref="BC1:BC3"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="AZ1:AZ3"/>
     <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="AZ1:AZ3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/resources/salary.xlsx
+++ b/resources/salary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -356,6 +356,22 @@
   </si>
   <si>
     <t>当月应扣所得税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待岗天数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产假天数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产假工资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待岗工资</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -522,6 +538,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,7 +582,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,9 +606,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,56 +671,29 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,427 +1005,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO3"/>
+  <dimension ref="A1:BS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1:AY3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
-    <col min="2" max="37" width="9" style="4"/>
-    <col min="38" max="38" width="11" style="4" customWidth="1"/>
-    <col min="39" max="39" width="10.375" style="4" customWidth="1"/>
-    <col min="40" max="46" width="9" style="4"/>
-    <col min="47" max="47" width="10.625" style="4" customWidth="1"/>
-    <col min="48" max="50" width="9" style="4"/>
-    <col min="51" max="51" width="11" style="4" customWidth="1"/>
-    <col min="52" max="55" width="9" style="4"/>
-    <col min="56" max="56" width="12.875" style="4" customWidth="1"/>
-    <col min="57" max="59" width="9" style="4"/>
-    <col min="60" max="60" width="26.125" style="4" customWidth="1"/>
-    <col min="61" max="61" width="21.25" style="4" customWidth="1"/>
-    <col min="62" max="62" width="35.375" style="4" customWidth="1"/>
-    <col min="63" max="63" width="30.375" style="4" customWidth="1"/>
-    <col min="64" max="64" width="17.625" style="4" customWidth="1"/>
-    <col min="65" max="65" width="30.375" style="4" customWidth="1"/>
-    <col min="66" max="66" width="60.75" style="4" customWidth="1"/>
-    <col min="67" max="67" width="12.5" style="4" customWidth="1"/>
-    <col min="68" max="16384" width="9" style="4"/>
+    <col min="2" max="41" width="9" style="4"/>
+    <col min="42" max="42" width="11" style="4" customWidth="1"/>
+    <col min="43" max="43" width="10.375" style="4" customWidth="1"/>
+    <col min="44" max="50" width="9" style="4"/>
+    <col min="51" max="51" width="10.625" style="4" customWidth="1"/>
+    <col min="52" max="54" width="9" style="4"/>
+    <col min="55" max="55" width="11" style="4" customWidth="1"/>
+    <col min="56" max="59" width="9" style="4"/>
+    <col min="60" max="60" width="12.875" style="4" customWidth="1"/>
+    <col min="61" max="63" width="9" style="4"/>
+    <col min="64" max="64" width="26.125" style="4" customWidth="1"/>
+    <col min="65" max="65" width="21.25" style="4" customWidth="1"/>
+    <col min="66" max="66" width="35.375" style="4" customWidth="1"/>
+    <col min="67" max="67" width="30.375" style="4" customWidth="1"/>
+    <col min="68" max="68" width="17.625" style="4" customWidth="1"/>
+    <col min="69" max="69" width="30.375" style="4" customWidth="1"/>
+    <col min="70" max="70" width="60.75" style="4" customWidth="1"/>
+    <col min="71" max="71" width="12.5" style="4" customWidth="1"/>
+    <col min="72" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:71" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="Q1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="T1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="W1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="X1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="AB1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AC1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AD1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AE1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27" t="s">
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27" t="s">
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="21" t="s">
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AU1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AV1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AW1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AX1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BD1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BE1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BF1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BG1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BH1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="BE1" s="23" t="s">
+      <c r="BI1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="25" t="s">
+      <c r="BK1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BH1" s="23" t="s">
+      <c r="BL1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" s="23" t="s">
+      <c r="BM1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="BJ1" s="23" t="s">
+      <c r="BN1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BK1" s="23" t="s">
+      <c r="BO1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="BL1" s="23" t="s">
+      <c r="BP1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="BN1" s="23" t="s">
+      <c r="BR1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="BO1" s="23" t="s">
+      <c r="BS1" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="27" t="s">
+    <row r="2" spans="1:71" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27" t="s">
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27" t="s">
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="30" t="s">
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AL2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="23"/>
-      <c r="BK2" s="23"/>
-      <c r="BL2" s="23"/>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="23"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="9"/>
+      <c r="BQ2" s="9"/>
+      <c r="BR2" s="9"/>
+      <c r="BS2" s="9"/>
     </row>
-    <row r="3" spans="1:67" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="18"/>
+    <row r="3" spans="1:71" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="7" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="31" t="s">
+      <c r="AG3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="31" t="s">
+      <c r="AI3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="31" t="s">
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AO3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AP3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AR3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AS3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="31" t="s">
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AU3" s="31" t="s">
+      <c r="AY3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AV3" s="31" t="s">
+      <c r="AZ3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AW3" s="31" t="s">
+      <c r="BA3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AX3" s="31" t="s">
+      <c r="BB3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="24"/>
-      <c r="BO3" s="24"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="9"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="57">
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:BB2"/>
+    <mergeCell ref="BG1:BG3"/>
+    <mergeCell ref="BF1:BF3"/>
     <mergeCell ref="BE1:BE3"/>
-    <mergeCell ref="BO1:BO3"/>
-    <mergeCell ref="BL1:BL3"/>
-    <mergeCell ref="BM1:BM3"/>
-    <mergeCell ref="BI1:BI3"/>
-    <mergeCell ref="BJ1:BJ3"/>
-    <mergeCell ref="BK1:BK3"/>
-    <mergeCell ref="BN1:BN3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="BH1:BH3"/>
-    <mergeCell ref="BF1:BF3"/>
-    <mergeCell ref="BG1:BG3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="AI1:AJ2"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="AQ1:AQ3"/>
     <mergeCell ref="BD1:BD3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:V2"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="AK1:AO2"/>
+    <mergeCell ref="BC1:BC3"/>
+    <mergeCell ref="AO1:AS2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -1364,20 +1438,41 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
-    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AD1:AD3"/>
     <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
     <mergeCell ref="P1:P3"/>
     <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="AS1:AS3"/>
-    <mergeCell ref="AT1:AX2"/>
-    <mergeCell ref="BC1:BC3"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="AZ1:AZ3"/>
-    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z2"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="BL1:BL3"/>
+    <mergeCell ref="BJ1:BJ3"/>
+    <mergeCell ref="BK1:BK3"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AE1:AL1"/>
+    <mergeCell ref="AM1:AN2"/>
+    <mergeCell ref="AT1:AT3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="BH1:BH3"/>
+    <mergeCell ref="BI1:BI3"/>
+    <mergeCell ref="BS1:BS3"/>
+    <mergeCell ref="BP1:BP3"/>
+    <mergeCell ref="BQ1:BQ3"/>
+    <mergeCell ref="BM1:BM3"/>
+    <mergeCell ref="BN1:BN3"/>
+    <mergeCell ref="BO1:BO3"/>
+    <mergeCell ref="BR1:BR3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
